--- a/InvoiceLogTemplate.xlsx
+++ b/InvoiceLogTemplate.xlsx
@@ -18,11 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,13 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -679,7 +676,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="2" t="n">
         <v>45444</v>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -765,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1815,6 +1812,146 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ATOS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Cosmoco</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Cosmoco</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>waqar</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>waqar</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>streamlit22</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ATOS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>wq</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ATOS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>wqqqq</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ATOS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>wqqqq12</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Minerva</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/InvoiceLogTemplate.xlsx
+++ b/InvoiceLogTemplate.xlsx
@@ -762,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1952,6 +1952,38 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">machine </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>streamlit</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/InvoiceLogTemplate.xlsx
+++ b/InvoiceLogTemplate.xlsx
@@ -762,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,15 +788,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Sum of Project Budget</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Sum of Proj. Budget Ext.</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Sum of Invoiced</t>
         </is>
@@ -819,6 +824,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +845,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -859,6 +866,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -879,6 +887,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -899,6 +908,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -919,6 +929,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -939,6 +950,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -959,6 +971,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -979,6 +992,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -999,6 +1013,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1019,6 +1034,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1039,6 +1055,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1059,6 +1076,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1079,6 +1097,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1099,6 +1118,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1119,6 +1139,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1139,6 +1160,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1159,6 +1181,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,6 +1202,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1199,6 +1223,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1219,6 +1244,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1239,6 +1265,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1259,6 +1286,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1279,6 +1307,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1299,6 +1328,7 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1319,6 +1349,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1339,6 +1370,7 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1359,6 +1391,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1379,6 +1412,7 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1399,6 +1433,7 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1419,6 +1454,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1439,6 +1475,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1459,6 +1496,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1479,6 +1517,7 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1499,6 +1538,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1519,6 +1559,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1539,6 +1580,7 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1559,6 +1601,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1571,6 +1614,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1587,6 +1631,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1599,6 +1644,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -1611,6 +1657,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1623,6 +1670,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1635,6 +1683,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -1651,6 +1700,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -1667,6 +1717,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1683,6 +1734,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1699,6 +1751,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -1715,6 +1768,7 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -1727,6 +1781,7 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -1739,6 +1794,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1751,6 +1807,7 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -1763,6 +1820,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -1779,6 +1837,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -1795,6 +1854,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -1811,6 +1871,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -1827,6 +1888,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -1843,6 +1905,7 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -1859,6 +1922,7 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -1871,6 +1935,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -1887,6 +1952,7 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -1903,6 +1969,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -1919,6 +1986,7 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -1935,6 +2003,7 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -1951,38 +2020,24 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ali</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">machine </t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>waqar</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>islamabad</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Ali</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>streamlit</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
